--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D078613-6E5C-47BD-BE0B-7446B2985E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67643FE-93BC-4C3F-B8E4-B3DF2B1F7FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="58">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -186,9 +186,6 @@
     <t>unit_name_prefix</t>
   </si>
   <si>
-    <t>capacity_input</t>
-  </si>
-  <si>
     <t>Gas CCGT old 2</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>node_suffix_input1</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
   </si>
 </sst>
 </file>
@@ -403,11 +403,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -415,7 +416,7 @@
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="11" width="13.85546875" customWidth="1"/>
   </cols>
@@ -437,10 +438,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>33</v>
@@ -458,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -478,7 +479,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -498,7 +499,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -518,7 +519,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -535,7 +536,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -555,7 +556,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -575,7 +576,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -595,7 +596,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -615,7 +616,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -632,7 +633,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -649,7 +650,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -666,7 +667,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -689,7 +690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -715,7 +716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -742,7 +743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -765,7 +766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -791,7 +792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -817,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -840,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -863,7 +864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -902,6 +903,9 @@
       <c r="H22">
         <v>1500</v>
       </c>
+      <c r="I22" t="s">
+        <v>35</v>
+      </c>
       <c r="J22">
         <v>3000</v>
       </c>
@@ -909,7 +913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -935,7 +939,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -958,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -984,7 +988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1038,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1313,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1510,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1582,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1655,7 +1659,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1842,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1899,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1916,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1950,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +1970,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1986,7 +1990,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +2010,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2023,7 +2027,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2056,6 +2060,9 @@
       <c r="H72">
         <v>586</v>
       </c>
+      <c r="I72" t="s">
+        <v>35</v>
+      </c>
       <c r="J72">
         <v>1172</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2090,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2110,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2127,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2363,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2463,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2482,7 +2489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2607,7 +2614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2668,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2767,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +2790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2813,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2832,7 +2839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2855,7 +2862,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2872,7 +2879,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +2896,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2930,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2957,7 +2964,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3032,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3049,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3066,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3135,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3175,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3205,7 +3212,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3229,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3242,7 +3249,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -3262,7 +3269,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3282,7 +3289,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3336,7 +3343,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3373,7 +3380,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -3393,7 +3400,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +3417,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -3427,7 +3434,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -3461,7 +3468,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -3478,7 +3485,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3505,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -3518,7 +3525,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3559,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3576,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -3589,7 +3596,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3707,7 +3714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +3786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3805,7 +3812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3903,7 +3910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3926,7 +3933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3949,7 +3956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4168,7 +4175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4198,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4263,7 +4270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4286,7 +4293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4339,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4408,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4434,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4483,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4499,7 +4506,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4538,6 +4545,9 @@
       <c r="H185">
         <v>1500</v>
       </c>
+      <c r="I185" t="s">
+        <v>35</v>
+      </c>
       <c r="J185">
         <v>3000</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4640,7 +4650,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +4673,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4686,7 +4696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4732,7 +4742,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4755,7 +4765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4807,7 +4817,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4879,7 +4889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4905,7 +4915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +4938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4974,7 +4984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5056,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -5085,6 +5095,9 @@
       <c r="H208">
         <v>1500</v>
       </c>
+      <c r="I208" t="s">
+        <v>35</v>
+      </c>
       <c r="J208">
         <v>3000</v>
       </c>
@@ -5092,7 +5105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5131,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5183,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5206,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5278,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5301,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5357,7 +5370,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5393,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5416,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5455,7 +5468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5504,7 +5517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5527,7 +5540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5550,7 +5563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5656,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -5660,7 +5673,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -5680,7 +5693,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -5700,7 +5713,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -5720,7 +5733,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -5737,7 +5750,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5767,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -5771,7 +5784,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -5788,7 +5801,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +5821,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -5828,7 +5841,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -5848,7 +5861,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -5865,7 +5878,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +5912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -5919,7 +5932,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -5956,7 +5969,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -5973,7 +5986,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -5990,7 +6003,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -6030,7 +6043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -6047,7 +6060,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -6064,7 +6077,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -6081,7 +6094,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -6101,7 +6114,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -6121,7 +6134,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -6138,7 +6151,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>18</v>
       </c>
@@ -6171,6 +6184,9 @@
       <c r="H260">
         <v>586</v>
       </c>
+      <c r="I260" t="s">
+        <v>35</v>
+      </c>
       <c r="J260">
         <v>1172</v>
       </c>
@@ -6178,7 +6194,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>18</v>
       </c>
@@ -6195,7 +6211,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>18</v>
       </c>
@@ -6215,7 +6231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>18</v>
       </c>
@@ -6235,7 +6251,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -6252,7 +6268,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>18</v>
       </c>
@@ -6285,6 +6301,9 @@
       <c r="H266">
         <v>586</v>
       </c>
+      <c r="I266" t="s">
+        <v>35</v>
+      </c>
       <c r="J266">
         <v>1172</v>
       </c>
@@ -6292,7 +6311,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -6309,7 +6328,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -6329,7 +6348,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -6349,7 +6368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -6366,7 +6385,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -6383,7 +6402,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -6400,7 +6419,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -6420,7 +6439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -6440,7 +6459,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -6457,7 +6476,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -6474,7 +6493,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -6494,7 +6513,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -6514,7 +6533,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -6534,7 +6553,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -6551,7 +6570,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>22</v>
       </c>
@@ -6571,7 +6590,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -6591,7 +6610,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -6611,7 +6630,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>22</v>
       </c>
@@ -6631,7 +6650,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -6648,7 +6667,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6665,7 +6684,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -6682,7 +6701,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6705,7 +6724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6732,7 +6751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6759,7 +6778,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6782,7 +6801,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -6834,7 +6853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6857,7 +6876,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6880,7 +6899,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6903,7 +6922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6952,7 +6971,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +6998,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +7025,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -7029,7 +7048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -7124,7 +7143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -7150,7 +7169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -7200,7 +7219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -7227,7 +7246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -7254,7 +7273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -7281,7 +7300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -7304,7 +7323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -7327,7 +7346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7376,7 +7395,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -7402,7 +7421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7425,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -7452,7 +7471,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +7498,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -7502,7 +7521,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -7525,7 +7544,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -7548,7 +7567,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -7574,7 +7593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -7597,7 +7616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7624,7 +7643,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -7651,7 +7670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -7678,7 +7697,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -7705,7 +7724,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -7728,7 +7747,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -7751,7 +7770,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -7797,7 +7816,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -7817,7 +7836,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -7834,7 +7853,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +7870,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -7871,7 +7890,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -7891,7 +7910,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -7908,7 +7927,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -7925,7 +7944,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +7961,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -7962,7 +7981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -7982,7 +8001,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -8002,7 +8021,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -8019,7 +8038,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -8056,7 +8075,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -8076,7 +8095,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -8093,7 +8112,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -8110,7 +8129,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -8133,7 +8152,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -8160,7 +8179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -8187,7 +8206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -8210,7 +8229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -8236,7 +8255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8278,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -8282,7 +8301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -8308,7 +8327,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -8331,7 +8350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -8358,7 +8377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -8385,7 +8404,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -8408,7 +8427,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -8431,7 +8450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -8457,7 +8476,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -8480,7 +8499,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -8506,7 +8525,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -8532,7 +8551,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -8555,7 +8574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -8582,7 +8601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -8609,7 +8628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -8636,7 +8655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -8663,7 +8682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -8686,7 +8705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -8709,7 +8728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -8735,7 +8754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -8758,7 +8777,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -8781,7 +8800,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -8807,7 +8826,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -8830,7 +8849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -8847,7 +8866,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>22</v>
       </c>
@@ -8864,7 +8883,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -8881,7 +8900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -8898,7 +8917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -8915,7 +8934,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -8932,7 +8951,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -8949,7 +8968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -8966,7 +8985,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -8983,7 +9002,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -9000,7 +9019,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -9017,7 +9036,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>21</v>
       </c>
@@ -9034,7 +9053,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -9061,7 +9080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -9090,6 +9109,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L392" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Kraft process recovery boiler"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:L276">
       <sortCondition ref="A1:A392"/>
     </sortState>
@@ -9141,10 +9165,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -9155,10 +9179,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -9169,10 +9193,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -9183,10 +9207,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -9197,10 +9221,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -9211,10 +9235,10 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -9225,7 +9249,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67643FE-93BC-4C3F-B8E4-B3DF2B1F7FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741F821-3A16-4C02-8865-962AE493F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$392</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1699" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="58">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -403,12 +403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I266" sqref="I266"/>
+      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -459,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -479,7 +478,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -499,7 +498,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -519,7 +518,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -536,7 +535,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -556,7 +555,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -576,7 +575,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -596,7 +595,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -616,7 +615,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -633,7 +632,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -650,7 +649,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -667,7 +666,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -690,7 +689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -716,7 +715,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -743,7 +742,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -766,7 +765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -792,7 +791,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -818,7 +817,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -841,7 +840,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -864,7 +863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -903,9 +902,6 @@
       <c r="H22">
         <v>1500</v>
       </c>
-      <c r="I22" t="s">
-        <v>35</v>
-      </c>
       <c r="J22">
         <v>3000</v>
       </c>
@@ -913,7 +909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -939,7 +935,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -962,7 +958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -988,7 +984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1015,7 +1011,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1061,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1178,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1263,7 +1259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1313,7 +1309,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1411,7 +1407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1434,7 +1430,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1506,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1533,7 +1529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1582,7 +1578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1632,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1659,7 +1655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1686,7 +1682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1785,7 +1781,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -1805,7 +1801,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1825,7 +1821,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1842,7 +1838,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1859,7 +1855,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1879,7 +1875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1929,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1950,7 +1946,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1990,7 +1986,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2006,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2027,7 +2023,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2060,9 +2056,6 @@
       <c r="H72">
         <v>586</v>
       </c>
-      <c r="I72" t="s">
-        <v>35</v>
-      </c>
       <c r="J72">
         <v>1172</v>
       </c>
@@ -2070,7 +2063,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2090,7 +2083,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2103,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2127,7 +2120,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2219,7 +2212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2242,7 +2235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2268,7 +2261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2314,7 +2307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2340,7 +2333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2363,7 +2356,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2463,7 +2456,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2482,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2512,7 +2505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +2531,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2564,7 +2557,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2587,7 +2580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2614,7 +2607,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2661,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2695,7 +2688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2718,7 +2711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2741,7 +2734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2813,7 +2806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2839,7 +2832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2855,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2879,7 +2872,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -2896,7 +2889,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2913,7 +2906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2930,7 +2923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -2947,7 +2940,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2957,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2981,7 +2974,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -2998,7 +2991,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3008,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3032,7 +3025,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -3049,7 +3042,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -3066,7 +3059,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3085,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3118,7 +3111,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3135,7 +3128,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3155,7 +3148,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3175,7 +3168,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3195,7 +3188,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3212,7 +3205,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -3229,7 +3222,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3249,7 +3242,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -3269,7 +3262,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3289,7 +3282,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -3306,7 +3299,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -3326,7 +3319,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3343,7 +3336,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3360,7 +3353,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3380,7 +3373,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -3400,7 +3393,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -3417,7 +3410,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -3434,7 +3427,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -3451,7 +3444,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -3485,7 +3478,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -3505,7 +3498,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -3525,7 +3518,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -3542,7 +3535,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3559,7 +3552,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -3576,7 +3569,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3622,7 +3615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3645,7 +3638,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3668,7 +3661,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3691,7 +3684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3714,7 +3707,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3760,7 +3753,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3786,7 +3779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3835,7 +3828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3884,7 +3877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3910,7 +3903,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +3926,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3956,7 +3949,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3979,7 +3972,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4002,7 +3995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4028,7 +4021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4051,7 +4044,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4067,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4097,7 +4090,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +4116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +4142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4175,7 +4168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4198,7 +4191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4221,7 +4214,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4247,7 +4240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4270,7 +4263,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4293,7 +4286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4316,7 +4309,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4339,7 +4332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4362,7 +4355,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4385,7 +4378,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4408,7 +4401,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4434,7 +4427,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4483,7 +4476,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4506,7 +4499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4545,9 +4538,6 @@
       <c r="H185">
         <v>1500</v>
       </c>
-      <c r="I185" t="s">
-        <v>35</v>
-      </c>
       <c r="J185">
         <v>3000</v>
       </c>
@@ -4555,7 +4545,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4578,7 +4568,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4604,7 +4594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4627,7 +4617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4650,7 +4640,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4673,7 +4663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4696,7 +4686,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4719,7 +4709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4742,7 +4732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4765,7 +4755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4817,7 +4807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4840,7 +4830,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4863,7 +4853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4889,7 +4879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4915,7 +4905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4938,7 +4928,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4961,7 +4951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +4974,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -5033,7 +5023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5056,7 +5046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -5095,9 +5085,6 @@
       <c r="H208">
         <v>1500</v>
       </c>
-      <c r="I208" t="s">
-        <v>35</v>
-      </c>
       <c r="J208">
         <v>3000</v>
       </c>
@@ -5105,7 +5092,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -5131,7 +5118,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5144,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5183,7 +5170,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5206,7 +5193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5229,7 +5216,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5252,7 +5239,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5301,7 +5288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5324,7 +5311,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5347,7 +5334,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5370,7 +5357,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5393,7 +5380,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5416,7 +5403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5442,7 +5429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5468,7 +5455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5494,7 +5481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5517,7 +5504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5540,7 +5527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5563,7 +5550,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5586,7 +5573,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5612,7 +5599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5639,7 +5626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -5656,7 +5643,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -5673,7 +5660,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -5693,7 +5680,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -5713,7 +5700,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -5733,7 +5720,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -5750,7 +5737,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -5767,7 +5754,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -5784,7 +5771,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -5801,7 +5788,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -5821,7 +5808,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -5841,7 +5828,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +5848,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -5878,7 +5865,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -5895,7 +5882,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -5912,7 +5899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -5932,7 +5919,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -5952,7 +5939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -5969,7 +5956,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -5986,7 +5973,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -6003,7 +5990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6023,7 +6010,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -6043,7 +6030,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -6060,7 +6047,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -6077,7 +6064,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -6094,7 +6081,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -6114,7 +6101,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -6134,7 +6121,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -6151,7 +6138,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>18</v>
       </c>
@@ -6184,9 +6171,6 @@
       <c r="H260">
         <v>586</v>
       </c>
-      <c r="I260" t="s">
-        <v>35</v>
-      </c>
       <c r="J260">
         <v>1172</v>
       </c>
@@ -6194,7 +6178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>18</v>
       </c>
@@ -6211,7 +6195,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>18</v>
       </c>
@@ -6231,7 +6215,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>18</v>
       </c>
@@ -6251,7 +6235,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -6268,7 +6252,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>18</v>
       </c>
@@ -6301,9 +6285,6 @@
       <c r="H266">
         <v>586</v>
       </c>
-      <c r="I266" t="s">
-        <v>35</v>
-      </c>
       <c r="J266">
         <v>1172</v>
       </c>
@@ -6311,7 +6292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -6328,7 +6309,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -6348,7 +6329,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -6368,7 +6349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -6385,7 +6366,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -6402,7 +6383,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -6419,7 +6400,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -6439,7 +6420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -6459,7 +6440,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -6476,7 +6457,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -6493,7 +6474,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -6513,7 +6494,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -6533,7 +6514,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -6553,7 +6534,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -6570,7 +6551,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>22</v>
       </c>
@@ -6590,7 +6571,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -6610,7 +6591,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -6630,7 +6611,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>22</v>
       </c>
@@ -6650,7 +6631,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -6667,7 +6648,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6684,7 +6665,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -6701,7 +6682,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6724,7 +6705,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6751,7 +6732,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6778,7 +6759,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6801,7 +6782,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6827,7 +6808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -6853,7 +6834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6876,7 +6857,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6899,7 +6880,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6922,7 +6903,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6948,7 +6929,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6971,7 +6952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6998,7 +6979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -7025,7 +7006,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -7048,7 +7029,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -7071,7 +7052,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -7097,7 +7078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -7120,7 +7101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -7143,7 +7124,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -7169,7 +7150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -7192,7 +7173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -7219,7 +7200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -7246,7 +7227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -7273,7 +7254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -7300,7 +7281,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -7323,7 +7304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -7346,7 +7327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -7372,7 +7353,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7395,7 +7376,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -7421,7 +7402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7444,7 +7425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -7471,7 +7452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -7498,7 +7479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -7521,7 +7502,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -7544,7 +7525,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -7593,7 +7574,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -7616,7 +7597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7643,7 +7624,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -7670,7 +7651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -7697,7 +7678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -7724,7 +7705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -7747,7 +7728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -7770,7 +7751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -7796,7 +7777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -7816,7 +7797,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -7836,7 +7817,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -7853,7 +7834,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -7870,7 +7851,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -7890,7 +7871,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -7910,7 +7891,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -7927,7 +7908,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -7944,7 +7925,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -7961,7 +7942,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -7981,7 +7962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -8001,7 +7982,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -8021,7 +8002,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -8038,7 +8019,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -8055,7 +8036,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -8075,7 +8056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -8095,7 +8076,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -8112,7 +8093,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -8129,7 +8110,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -8152,7 +8133,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -8179,7 +8160,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -8206,7 +8187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -8229,7 +8210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -8255,7 +8236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -8278,7 +8259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -8301,7 +8282,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -8327,7 +8308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -8350,7 +8331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -8377,7 +8358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -8404,7 +8385,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -8427,7 +8408,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -8450,7 +8431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -8476,7 +8457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -8499,7 +8480,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -8525,7 +8506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -8551,7 +8532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -8574,7 +8555,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -8601,7 +8582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -8628,7 +8609,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -8655,7 +8636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -8682,7 +8663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -8705,7 +8686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -8728,7 +8709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -8754,7 +8735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -8777,7 +8758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -8800,7 +8781,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -8826,7 +8807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -8849,7 +8830,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -8866,7 +8847,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>22</v>
       </c>
@@ -8883,7 +8864,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -8900,7 +8881,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -8917,7 +8898,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -8934,7 +8915,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -8951,7 +8932,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -8968,7 +8949,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -8985,7 +8966,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -9002,7 +8983,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -9019,7 +9000,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -9036,7 +9017,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>21</v>
       </c>
@@ -9053,7 +9034,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -9080,7 +9061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -9109,11 +9090,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L392" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Kraft process recovery boiler"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:L276">
       <sortCondition ref="A1:A392"/>
     </sortState>
@@ -9132,7 +9108,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1741F821-3A16-4C02-8865-962AE493F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E312596-EFF1-4B8C-8F53-E6B9BEECAB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$392</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -403,11 +403,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -458,7 +459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -478,7 +479,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -498,7 +499,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -518,7 +519,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -535,7 +536,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -555,7 +556,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -575,7 +576,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -595,7 +596,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -615,7 +616,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -632,7 +633,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -649,7 +650,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -666,7 +667,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -689,7 +690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -715,7 +716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -742,7 +743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -765,7 +766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -791,7 +792,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -817,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -840,7 +841,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -863,7 +864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -909,7 +910,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -935,7 +936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -958,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -984,7 +985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1034,7 +1035,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1106,7 +1107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1129,7 +1130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -1259,7 +1260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1309,7 +1310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -1407,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1755,7 +1756,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>17</v>
       </c>
@@ -1895,7 +1896,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1930,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>18</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>18</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>18</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2482,7 +2483,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -2505,7 +2506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -2688,7 +2689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>22</v>
       </c>
@@ -2872,7 +2873,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>22</v>
       </c>
@@ -2889,7 +2890,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2923,7 +2924,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>18</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -2974,7 +2975,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>21</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>4</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>4</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -3148,7 +3149,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>22</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>22</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>22</v>
       </c>
@@ -3373,7 +3374,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>22</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>22</v>
       </c>
@@ -3410,7 +3411,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>22</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>22</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>22</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>22</v>
       </c>
@@ -3478,7 +3479,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>22</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -3518,7 +3519,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>22</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>22</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>22</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>22</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>4</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3707,7 +3708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>4</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>4</v>
       </c>
@@ -3851,7 +3852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>4</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>4</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3949,7 +3950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4045,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4067,7 +4068,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -4142,7 +4143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -4309,7 +4310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4356,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4379,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4401,7 +4402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -4453,7 +4454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -4686,7 +4687,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -4732,7 +4733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -4830,7 +4831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4853,7 +4854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>4</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>4</v>
       </c>
@@ -4974,7 +4975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>4</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>4</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>4</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>4</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>4</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5217,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>4</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -5265,7 +5266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>4</v>
       </c>
@@ -5357,7 +5358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5381,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>4</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>4</v>
       </c>
@@ -5429,7 +5430,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>4</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -5481,7 +5482,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>4</v>
       </c>
@@ -5527,7 +5528,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -5550,7 +5551,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -5573,7 +5574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>4</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -5737,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -5754,7 +5755,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>21</v>
       </c>
@@ -5771,7 +5772,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>21</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>21</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>21</v>
       </c>
@@ -5848,7 +5849,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>21</v>
       </c>
@@ -5865,7 +5866,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>17</v>
       </c>
@@ -5919,7 +5920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>17</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>17</v>
       </c>
@@ -5956,7 +5957,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -5973,7 +5974,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>17</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>17</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>17</v>
       </c>
@@ -6047,7 +6048,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -6064,7 +6065,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -6081,7 +6082,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>18</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>18</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>18</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>18</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>18</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>18</v>
       </c>
@@ -6215,7 +6216,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>18</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>18</v>
       </c>
@@ -6252,7 +6253,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>18</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>19</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>19</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>19</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>19</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>19</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>19</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>19</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>19</v>
       </c>
@@ -6457,7 +6458,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>19</v>
       </c>
@@ -6474,7 +6475,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>20</v>
       </c>
@@ -6494,7 +6495,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>20</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>20</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>20</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>22</v>
       </c>
@@ -6571,7 +6572,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>22</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>22</v>
       </c>
@@ -6611,7 +6612,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>22</v>
       </c>
@@ -6631,7 +6632,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>22</v>
       </c>
@@ -6648,7 +6649,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>22</v>
       </c>
@@ -6665,7 +6666,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>22</v>
       </c>
@@ -6682,7 +6683,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>4</v>
       </c>
@@ -6705,7 +6706,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>4</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>4</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>4</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>4</v>
       </c>
@@ -6808,7 +6809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>4</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>4</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>4</v>
       </c>
@@ -6880,7 +6881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>4</v>
       </c>
@@ -6903,7 +6904,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>4</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>4</v>
       </c>
@@ -7006,7 +7007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -7029,7 +7030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>4</v>
       </c>
@@ -7052,7 +7053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>4</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>4</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>4</v>
       </c>
@@ -7124,7 +7125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>4</v>
       </c>
@@ -7150,7 +7151,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>4</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>4</v>
       </c>
@@ -7200,7 +7201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>4</v>
       </c>
@@ -7227,7 +7228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>4</v>
       </c>
@@ -7254,7 +7255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>4</v>
       </c>
@@ -7281,7 +7282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>4</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>4</v>
       </c>
@@ -7327,7 +7328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -7353,7 +7354,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>4</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>4</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>4</v>
       </c>
@@ -7425,7 +7426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>4</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>4</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>4</v>
       </c>
@@ -7502,7 +7503,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>4</v>
       </c>
@@ -7525,7 +7526,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>4</v>
       </c>
@@ -7548,7 +7549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>4</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>4</v>
       </c>
@@ -7597,7 +7598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>4</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>4</v>
       </c>
@@ -7651,7 +7652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>4</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>4</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>4</v>
       </c>
@@ -7751,7 +7752,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>4</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>21</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>21</v>
       </c>
@@ -7817,7 +7818,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>21</v>
       </c>
@@ -7834,7 +7835,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -7871,7 +7872,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>17</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>17</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -7982,7 +7983,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -8002,7 +8003,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -8019,7 +8020,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>19</v>
       </c>
@@ -8056,7 +8057,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>19</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>19</v>
       </c>
@@ -8093,7 +8094,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>19</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>4</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -8160,7 +8161,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>4</v>
       </c>
@@ -8187,7 +8188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>4</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>4</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>4</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>4</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>4</v>
       </c>
@@ -8308,7 +8309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>4</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>4</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>4</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>4</v>
       </c>
@@ -8408,7 +8409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>4</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>4</v>
       </c>
@@ -8457,7 +8458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>4</v>
       </c>
@@ -8480,7 +8481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>4</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>4</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -8555,7 +8556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>4</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>4</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>4</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>4</v>
       </c>
@@ -8663,7 +8664,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>4</v>
       </c>
@@ -8686,7 +8687,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>4</v>
       </c>
@@ -8709,7 +8710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>4</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>4</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>4</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>4</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>22</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>22</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>17</v>
       </c>
@@ -8881,7 +8882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>17</v>
       </c>
@@ -8898,7 +8899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -8915,7 +8916,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>19</v>
       </c>
@@ -8949,7 +8950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>19</v>
       </c>
@@ -8966,7 +8967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>20</v>
       </c>
@@ -8983,7 +8984,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>20</v>
       </c>
@@ -9000,7 +9001,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>21</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>21</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>4</v>
       </c>
@@ -9061,7 +9062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>4</v>
       </c>
@@ -9090,6 +9091,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L392" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Kraft process recovery boiler"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A64:L276">
       <sortCondition ref="A1:A392"/>
     </sortState>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backbone\backbone\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53562C06-0C1C-4CED-A03E-65788481E9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F839351-9F64-4392-A5E6-DA68FF72DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$153</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -355,8 +355,8 @@
   <dimension ref="A1:L153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -962,7 +962,7 @@
         <v>2025</v>
       </c>
       <c r="H31">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>2025</v>
       </c>
       <c r="H32">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -996,7 +996,7 @@
         <v>2025</v>
       </c>
       <c r="H33">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -1013,7 +1013,7 @@
         <v>2025</v>
       </c>
       <c r="H34">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -1030,7 +1030,7 @@
         <v>2025</v>
       </c>
       <c r="H35">
-        <v>380</v>
+        <v>760</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>2025</v>
       </c>
       <c r="H36">
-        <v>380</v>
+        <v>760</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
@@ -1064,7 +1064,7 @@
         <v>2025</v>
       </c>
       <c r="H37">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
@@ -1081,7 +1081,7 @@
         <v>2025</v>
       </c>
       <c r="H38">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>2025</v>
       </c>
       <c r="H39">
-        <v>999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -1115,7 +1115,7 @@
         <v>2025</v>
       </c>
       <c r="H40">
-        <v>999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
         <v>2025</v>
       </c>
       <c r="H41">
-        <v>1060</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>2025</v>
       </c>
       <c r="H42">
-        <v>1060</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>2035</v>
       </c>
       <c r="H142">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -3004,7 +3004,7 @@
         <v>2035</v>
       </c>
       <c r="H143">
-        <v>187</v>
+        <v>374</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -3021,7 +3021,7 @@
         <v>2035</v>
       </c>
       <c r="H144">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3038,7 +3038,7 @@
         <v>2035</v>
       </c>
       <c r="H145">
-        <v>49</v>
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -3055,7 +3055,7 @@
         <v>2035</v>
       </c>
       <c r="H146">
-        <v>380</v>
+        <v>760</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3072,7 +3072,7 @@
         <v>2035</v>
       </c>
       <c r="H147">
-        <v>380</v>
+        <v>760</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3089,7 +3089,7 @@
         <v>2035</v>
       </c>
       <c r="H148">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3106,7 +3106,7 @@
         <v>2035</v>
       </c>
       <c r="H149">
-        <v>112</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3123,7 +3123,7 @@
         <v>2035</v>
       </c>
       <c r="H150">
-        <v>999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3140,7 +3140,7 @@
         <v>2035</v>
       </c>
       <c r="H151">
-        <v>999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -3157,7 +3157,7 @@
         <v>2035</v>
       </c>
       <c r="H152">
-        <v>1060</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>2035</v>
       </c>
       <c r="H153">
-        <v>1060</v>
+        <v>2120</v>
       </c>
     </row>
   </sheetData>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backbone\backbone\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backbone\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F839351-9F64-4392-A5E6-DA68FF72DECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC3E99-A403-4D0D-97CF-221EE07076CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
     <sheet name="Remove_conventionalVersions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$153</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="40">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Heat storage charger</t>
-  </si>
-  <si>
-    <t>H2 heavy</t>
   </si>
   <si>
     <t>capacity_output1</t>
@@ -352,32 +349,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L153"/>
+  <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N13" sqref="N13"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="11" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -386,28 +383,28 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -427,7 +424,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -447,7 +444,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -467,7 +464,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -484,7 +481,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -504,7 +501,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -524,7 +521,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -544,7 +541,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -564,7 +561,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -581,7 +578,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -598,7 +595,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -615,7 +612,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -635,7 +632,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -655,7 +652,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -672,7 +669,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -689,7 +686,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -709,7 +706,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -729,7 +726,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -746,7 +743,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -763,7 +760,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -780,7 +777,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -800,7 +797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -820,7 +817,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -840,7 +837,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -857,7 +854,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -874,7 +871,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -894,7 +891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -914,7 +911,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -931,7 +928,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -948,7 +945,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -965,7 +962,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -982,7 +979,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -999,7 +996,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1013,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1030,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1047,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1064,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1081,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1101,7 +1098,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1135,7 +1132,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1152,7 +1149,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1169,7 +1166,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1189,7 +1186,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1209,7 +1206,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1229,7 +1226,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -1263,7 +1260,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1303,7 +1300,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1391,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1411,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1465,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1502,7 +1499,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1519,7 +1516,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1539,7 +1536,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1593,7 +1590,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1610,7 +1607,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1630,7 +1627,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1644,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1661,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -1684,7 +1681,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -1724,7 +1721,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -1741,7 +1738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1772,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -1792,7 +1789,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -1812,7 +1809,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -1832,7 +1829,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1849,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -1869,7 +1866,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -1943,7 +1940,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1957,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -1977,7 +1974,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -1994,7 +1991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -2014,7 +2011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -2034,7 +2031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -2051,7 +2048,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -2068,7 +2065,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -2125,7 +2122,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -2142,7 +2139,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2156,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +2173,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -2216,7 +2213,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -2233,7 +2230,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -2250,7 +2247,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -2267,7 +2264,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>17</v>
       </c>
@@ -2287,7 +2284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>17</v>
       </c>
@@ -2307,7 +2304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>17</v>
       </c>
@@ -2324,7 +2321,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -2341,7 +2338,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2355,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2375,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>17</v>
       </c>
@@ -2398,7 +2395,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>17</v>
       </c>
@@ -2415,7 +2412,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -2432,755 +2429,10 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113">
-        <v>2035</v>
-      </c>
-      <c r="H113">
-        <v>7929</v>
-      </c>
-      <c r="J113">
-        <v>7929</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>18</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114">
-        <v>2035</v>
-      </c>
-      <c r="H114">
-        <v>3750</v>
-      </c>
-      <c r="J114">
-        <v>7512</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s">
-        <v>14</v>
-      </c>
-      <c r="D115" t="s">
-        <v>24</v>
-      </c>
-      <c r="E115">
-        <v>2035</v>
-      </c>
-      <c r="H115">
-        <v>300</v>
-      </c>
-      <c r="J115">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116">
-        <v>2035</v>
-      </c>
-      <c r="H116">
-        <v>23300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" t="s">
-        <v>24</v>
-      </c>
-      <c r="E117">
-        <v>2035</v>
-      </c>
-      <c r="H117">
-        <v>967</v>
-      </c>
-      <c r="J117">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>20</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118">
-        <v>2035</v>
-      </c>
-      <c r="H118">
-        <v>600</v>
-      </c>
-      <c r="J118">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>20</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" t="s">
-        <v>24</v>
-      </c>
-      <c r="E119">
-        <v>2035</v>
-      </c>
-      <c r="H119">
-        <v>900</v>
-      </c>
-      <c r="J119">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>20</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120">
-        <v>2035</v>
-      </c>
-      <c r="H120">
-        <v>300</v>
-      </c>
-      <c r="J120">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D121" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121">
-        <v>2035</v>
-      </c>
-      <c r="H121">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>20</v>
-      </c>
-      <c r="B122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122">
-        <v>2035</v>
-      </c>
-      <c r="H122">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>20</v>
-      </c>
-      <c r="B123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123">
-        <v>2035</v>
-      </c>
-      <c r="H123">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>19</v>
-      </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
-      <c r="D124" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124">
-        <v>2035</v>
-      </c>
-      <c r="H124">
-        <v>960</v>
-      </c>
-      <c r="J124">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>19</v>
-      </c>
-      <c r="B125" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125">
-        <v>2035</v>
-      </c>
-      <c r="H125">
-        <v>5300</v>
-      </c>
-      <c r="J125">
-        <v>10650</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>19</v>
-      </c>
-      <c r="B126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" t="s">
-        <v>24</v>
-      </c>
-      <c r="E126">
-        <v>2035</v>
-      </c>
-      <c r="H126">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>19</v>
-      </c>
-      <c r="B127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" t="s">
-        <v>24</v>
-      </c>
-      <c r="E127">
-        <v>2035</v>
-      </c>
-      <c r="H127">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>14</v>
-      </c>
-      <c r="D128" t="s">
-        <v>24</v>
-      </c>
-      <c r="E128">
-        <v>2035</v>
-      </c>
-      <c r="H128">
-        <v>70</v>
-      </c>
-      <c r="J128">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" t="s">
-        <v>24</v>
-      </c>
-      <c r="E129">
-        <v>2035</v>
-      </c>
-      <c r="H129">
-        <v>135</v>
-      </c>
-      <c r="J129">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130">
-        <v>2035</v>
-      </c>
-      <c r="H130">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>15</v>
-      </c>
-      <c r="B131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131">
-        <v>2035</v>
-      </c>
-      <c r="H131">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>16</v>
-      </c>
-      <c r="B132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
-        <v>24</v>
-      </c>
-      <c r="E132">
-        <v>2035</v>
-      </c>
-      <c r="H132">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>16</v>
-      </c>
-      <c r="B133" t="s">
-        <v>14</v>
-      </c>
-      <c r="D133" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133">
-        <v>2035</v>
-      </c>
-      <c r="H133">
-        <v>200</v>
-      </c>
-      <c r="J133">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>16</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="D134" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134">
-        <v>2035</v>
-      </c>
-      <c r="H134">
-        <v>1020</v>
-      </c>
-      <c r="J134">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>16</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" t="s">
-        <v>24</v>
-      </c>
-      <c r="E135">
-        <v>2035</v>
-      </c>
-      <c r="H135">
-        <v>289</v>
-      </c>
-      <c r="J135">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>16</v>
-      </c>
-      <c r="B136" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136">
-        <v>2035</v>
-      </c>
-      <c r="H136">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>16</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" t="s">
-        <v>24</v>
-      </c>
-      <c r="E137">
-        <v>2035</v>
-      </c>
-      <c r="H137">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>17</v>
-      </c>
-      <c r="B138" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" t="s">
-        <v>24</v>
-      </c>
-      <c r="E138">
-        <v>2035</v>
-      </c>
-      <c r="H138">
-        <v>80</v>
-      </c>
-      <c r="J138">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>17</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" t="s">
-        <v>24</v>
-      </c>
-      <c r="E139">
-        <v>2035</v>
-      </c>
-      <c r="H139">
-        <v>360</v>
-      </c>
-      <c r="J139">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>17</v>
-      </c>
-      <c r="B140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140">
-        <v>2035</v>
-      </c>
-      <c r="H140">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>17</v>
-      </c>
-      <c r="B141" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" t="s">
-        <v>24</v>
-      </c>
-      <c r="E141">
-        <v>2035</v>
-      </c>
-      <c r="H141">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" t="s">
-        <v>22</v>
-      </c>
-      <c r="D142" t="s">
-        <v>24</v>
-      </c>
-      <c r="E142">
-        <v>2035</v>
-      </c>
-      <c r="H142">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" t="s">
-        <v>24</v>
-      </c>
-      <c r="E143">
-        <v>2035</v>
-      </c>
-      <c r="H143">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>15</v>
-      </c>
-      <c r="B144" t="s">
-        <v>22</v>
-      </c>
-      <c r="D144" t="s">
-        <v>24</v>
-      </c>
-      <c r="E144">
-        <v>2035</v>
-      </c>
-      <c r="H144">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>15</v>
-      </c>
-      <c r="B145" t="s">
-        <v>23</v>
-      </c>
-      <c r="D145" t="s">
-        <v>24</v>
-      </c>
-      <c r="E145">
-        <v>2035</v>
-      </c>
-      <c r="H145">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>16</v>
-      </c>
-      <c r="B146" t="s">
-        <v>22</v>
-      </c>
-      <c r="D146" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146">
-        <v>2035</v>
-      </c>
-      <c r="H146">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" t="s">
-        <v>23</v>
-      </c>
-      <c r="D147" t="s">
-        <v>24</v>
-      </c>
-      <c r="E147">
-        <v>2035</v>
-      </c>
-      <c r="H147">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>17</v>
-      </c>
-      <c r="B148" t="s">
-        <v>22</v>
-      </c>
-      <c r="D148" t="s">
-        <v>24</v>
-      </c>
-      <c r="E148">
-        <v>2035</v>
-      </c>
-      <c r="H148">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>17</v>
-      </c>
-      <c r="B149" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" t="s">
-        <v>24</v>
-      </c>
-      <c r="E149">
-        <v>2035</v>
-      </c>
-      <c r="H149">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>18</v>
-      </c>
-      <c r="B150" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" t="s">
-        <v>24</v>
-      </c>
-      <c r="E150">
-        <v>2035</v>
-      </c>
-      <c r="H150">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>18</v>
-      </c>
-      <c r="B151" t="s">
-        <v>23</v>
-      </c>
-      <c r="D151" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151">
-        <v>2035</v>
-      </c>
-      <c r="H151">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>19</v>
-      </c>
-      <c r="B152" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" t="s">
-        <v>24</v>
-      </c>
-      <c r="E152">
-        <v>2035</v>
-      </c>
-      <c r="H152">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>19</v>
-      </c>
-      <c r="B153" t="s">
-        <v>23</v>
-      </c>
-      <c r="D153" t="s">
-        <v>24</v>
-      </c>
-      <c r="E153">
-        <v>2035</v>
-      </c>
-      <c r="H153">
-        <v>2120</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L153" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:L112" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:L112">
-      <sortCondition ref="A1:A153"/>
+      <sortCondition ref="A1:A112"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -3200,20 +2452,20 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3"/>
+    <col min="5" max="5" width="11.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -3225,96 +2477,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>21</v>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backbone\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBC3E99-A403-4D0D-97CF-221EE07076CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56BDD1-F69F-4FA1-9AD3-0D7DB18FBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="39">
   <si>
     <t>Generator_ID</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Gas CCGT CHP</t>
-  </si>
-  <si>
-    <t>National Trends</t>
   </si>
   <si>
     <t>Oil HOB</t>
@@ -352,29 +349,30 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H130" sqref="H130"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -383,39 +381,39 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>2025</v>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="H2">
         <v>7929</v>
@@ -424,18 +422,18 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <v>2025</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
       </c>
       <c r="H3">
         <v>3750</v>
@@ -444,18 +442,18 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2025</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>300</v>
@@ -464,35 +462,35 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>2025</v>
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
       </c>
       <c r="H5">
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>2025</v>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
       </c>
       <c r="H6">
         <v>967</v>
@@ -501,18 +499,18 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>2025</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -521,18 +519,18 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>2025</v>
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
       </c>
       <c r="H8">
         <v>900</v>
@@ -541,18 +539,18 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>2025</v>
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
       </c>
       <c r="H9">
         <v>300</v>
@@ -561,69 +559,69 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>2025</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="E11">
-        <v>2025</v>
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12">
-        <v>2025</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
       </c>
       <c r="H12">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>2025</v>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="H13">
         <v>960</v>
@@ -632,18 +630,18 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>2025</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
       </c>
       <c r="H14">
         <v>5300</v>
@@ -652,52 +650,52 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <v>2025</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="H15">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>2025</v>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
       </c>
       <c r="H16">
         <v>22000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>2025</v>
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
       </c>
       <c r="H17">
         <v>70</v>
@@ -706,18 +704,18 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>2025</v>
+        <v>11</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
       </c>
       <c r="H18">
         <v>135</v>
@@ -726,69 +724,69 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19">
-        <v>2025</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
       </c>
       <c r="H19">
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20">
-        <v>2025</v>
+      <c r="D20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
       </c>
       <c r="H20">
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21">
-        <v>2025</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
       </c>
       <c r="H21">
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22">
-        <v>2025</v>
+        <v>13</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -797,18 +795,18 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23">
-        <v>2025</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1020</v>
@@ -817,18 +815,18 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24">
-        <v>2025</v>
+        <v>12</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
       </c>
       <c r="H24">
         <v>289</v>
@@ -837,52 +835,52 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <v>2025</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1</v>
       </c>
       <c r="H25">
         <v>4158</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="E26">
-        <v>2025</v>
+      <c r="D26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
       </c>
       <c r="H26">
         <v>12000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>2025</v>
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="H27">
         <v>80</v>
@@ -891,18 +889,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28">
-        <v>2025</v>
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
       </c>
       <c r="H28">
         <v>360</v>
@@ -911,272 +909,272 @@
         <v>720</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29">
-        <v>2025</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
       </c>
       <c r="H29">
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>2025</v>
+      <c r="D30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="H30">
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
       </c>
       <c r="H31">
         <v>374</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
       </c>
       <c r="H32">
         <v>374</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
       </c>
       <c r="H33">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
       </c>
       <c r="H34">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
       </c>
       <c r="H35">
         <v>760</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
       </c>
       <c r="H36">
         <v>760</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
       </c>
       <c r="H37">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
       </c>
       <c r="H38">
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1998</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1998</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41">
-        <v>2025</v>
+        <v>21</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
       </c>
       <c r="H41">
         <v>2120</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
-        <v>2025</v>
+        <v>22</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1</v>
       </c>
       <c r="H42">
         <v>2120</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
         <v>2040</v>
       </c>
       <c r="H43">
         <v>16500</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44">
+        <v>11</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="3">
         <v>2040</v>
       </c>
       <c r="H44">
@@ -1186,17 +1184,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="3">
         <v>2040</v>
       </c>
       <c r="H45">
@@ -1206,17 +1204,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="3">
         <v>2040</v>
       </c>
       <c r="H46">
@@ -1226,51 +1224,51 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="3">
         <v>2040</v>
       </c>
       <c r="H47">
         <v>18000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="3">
         <v>2030</v>
       </c>
       <c r="H48">
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49">
+        <v>11</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3">
         <v>2030</v>
       </c>
       <c r="H49">
@@ -1280,17 +1278,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50">
+        <v>13</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="3">
         <v>2030</v>
       </c>
       <c r="H50">
@@ -1300,17 +1298,17 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51">
+        <v>12</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3">
         <v>2030</v>
       </c>
       <c r="H51">
@@ -1320,34 +1318,34 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="3">
         <v>2030</v>
       </c>
       <c r="H52">
         <v>18000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="3">
         <v>2030</v>
       </c>
       <c r="H53">
@@ -1357,51 +1355,51 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="3">
         <v>2040</v>
       </c>
       <c r="H54">
         <v>1500</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E55" s="3">
         <v>2040</v>
       </c>
       <c r="H55">
         <v>1500</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56">
+        <v>13</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="3">
         <v>2040</v>
       </c>
       <c r="H56">
@@ -1411,17 +1409,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57">
+        <v>11</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3">
         <v>2040</v>
       </c>
       <c r="H57">
@@ -1431,102 +1429,102 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="3">
         <v>2040</v>
       </c>
       <c r="H58">
         <v>1500</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="3">
         <v>2040</v>
       </c>
       <c r="H59">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="3">
         <v>2040</v>
       </c>
       <c r="H60">
         <v>1200</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="D61" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61">
+        <v>9</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="3">
         <v>2030</v>
       </c>
       <c r="H61">
         <v>1200</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="3">
         <v>2030</v>
       </c>
       <c r="H62">
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63">
+        <v>13</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="3">
         <v>2030</v>
       </c>
       <c r="H63">
@@ -1536,17 +1534,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64">
+        <v>11</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="3">
         <v>2030</v>
       </c>
       <c r="H64">
@@ -1556,68 +1554,68 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E65" s="3">
         <v>2030</v>
       </c>
       <c r="H65">
         <v>1500</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66">
+        <v>6</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E66" s="3">
         <v>2030</v>
       </c>
       <c r="H66">
         <v>1500</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67">
+        <v>8</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" s="3">
         <v>2030</v>
       </c>
       <c r="H67">
         <v>1200</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68">
+        <v>12</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="3">
         <v>2030</v>
       </c>
       <c r="H68">
@@ -1627,51 +1625,51 @@
         <v>600</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69">
+        <v>9</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="3">
         <v>2040</v>
       </c>
       <c r="H69">
         <v>6000</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" s="3">
         <v>2040</v>
       </c>
       <c r="H70">
         <v>3000</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="3">
         <v>2040</v>
       </c>
       <c r="H71">
@@ -1681,17 +1679,17 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E72" s="3">
         <v>2040</v>
       </c>
       <c r="H72">
@@ -1701,17 +1699,17 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73">
+        <v>12</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="3">
         <v>2040</v>
       </c>
       <c r="H73">
@@ -1721,85 +1719,85 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74">
+        <v>7</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="3">
         <v>2040</v>
       </c>
       <c r="H74">
         <v>7000</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75">
+        <v>6</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" s="3">
         <v>2040</v>
       </c>
       <c r="H75">
         <v>22000</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76">
+        <v>9</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="3">
         <v>2030</v>
       </c>
       <c r="H76">
         <v>3000</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77">
+        <v>10</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="3">
         <v>2030</v>
       </c>
       <c r="H77">
         <v>1500</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="3">
         <v>2030</v>
       </c>
       <c r="H78">
@@ -1809,17 +1807,17 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E79" s="3">
         <v>2030</v>
       </c>
       <c r="H79">
@@ -1829,17 +1827,17 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80">
+        <v>12</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E80" s="3">
         <v>2030</v>
       </c>
       <c r="H80">
@@ -1849,68 +1847,68 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81">
+        <v>7</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="3">
         <v>2030</v>
       </c>
       <c r="H81">
         <v>7000</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E82" s="3">
         <v>2030</v>
       </c>
       <c r="H82">
         <v>22000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D83" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83">
+        <v>9</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="3">
         <v>2040</v>
       </c>
       <c r="H83">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="3">
         <v>2040</v>
       </c>
       <c r="H84">
@@ -1920,17 +1918,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="3">
         <v>2040</v>
       </c>
       <c r="H85">
@@ -1940,68 +1938,68 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E86" s="3">
         <v>2040</v>
       </c>
       <c r="H86">
         <v>550</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="3">
         <v>2040</v>
       </c>
       <c r="H87">
         <v>1000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
-      </c>
-      <c r="D88" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88">
+        <v>9</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="3">
         <v>2030</v>
       </c>
       <c r="H88">
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
-      </c>
-      <c r="D89" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="3">
         <v>2030</v>
       </c>
       <c r="H89">
@@ -2011,17 +2009,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="3">
         <v>2030</v>
       </c>
       <c r="H90">
@@ -2031,68 +2029,68 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="3">
         <v>2030</v>
       </c>
       <c r="H91">
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="3">
         <v>2030</v>
       </c>
       <c r="H92">
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93">
+        <v>9</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E93" s="3">
         <v>2040</v>
       </c>
       <c r="H93">
         <v>1800</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94">
+        <v>13</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="3">
         <v>2040</v>
       </c>
       <c r="H94">
@@ -2102,17 +2100,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95">
+        <v>11</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="3">
         <v>2040</v>
       </c>
       <c r="H95">
@@ -2122,68 +2120,68 @@
         <v>900</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96">
+        <v>8</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="3">
         <v>2040</v>
       </c>
       <c r="H96">
         <v>3000</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="3">
         <v>2040</v>
       </c>
       <c r="H97">
         <v>11000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
-      </c>
-      <c r="D98" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="3">
         <v>2030</v>
       </c>
       <c r="H98">
         <v>1000</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99">
+        <v>13</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="3">
         <v>2030</v>
       </c>
       <c r="H99">
@@ -2193,17 +2191,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100">
+        <v>11</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="3">
         <v>2030</v>
       </c>
       <c r="H100">
@@ -2213,68 +2211,68 @@
         <v>900</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101">
+        <v>8</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="3">
         <v>2030</v>
       </c>
       <c r="H101">
         <v>3000</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E102" s="3">
         <v>2030</v>
       </c>
       <c r="H102">
         <v>11000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" t="s">
-        <v>21</v>
-      </c>
-      <c r="E103">
+        <v>9</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="3">
         <v>2040</v>
       </c>
       <c r="H103">
         <v>608</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
-      </c>
-      <c r="D104" t="s">
-        <v>21</v>
-      </c>
-      <c r="E104">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" s="3">
         <v>2040</v>
       </c>
       <c r="H104">
@@ -2284,17 +2282,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105">
+        <v>11</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E105" s="3">
         <v>2040</v>
       </c>
       <c r="H105">
@@ -2304,68 +2302,68 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>21</v>
-      </c>
-      <c r="E106">
+        <v>8</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E106" s="3">
         <v>2040</v>
       </c>
       <c r="H106">
         <v>1200</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="3">
         <v>2040</v>
       </c>
       <c r="H107">
         <v>2500</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
-      </c>
-      <c r="D108" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108">
+        <v>9</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="3">
         <v>2030</v>
       </c>
       <c r="H108">
         <v>608</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
-      </c>
-      <c r="D109" t="s">
-        <v>21</v>
-      </c>
-      <c r="E109">
+        <v>13</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="3">
         <v>2030</v>
       </c>
       <c r="H109">
@@ -2375,17 +2373,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" t="s">
-        <v>21</v>
-      </c>
-      <c r="E110">
+        <v>11</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" s="3">
         <v>2030</v>
       </c>
       <c r="H110">
@@ -2395,34 +2393,34 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>21</v>
-      </c>
-      <c r="E111">
+        <v>8</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E111" s="3">
         <v>2030</v>
       </c>
       <c r="H111">
         <v>1200</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>21</v>
-      </c>
-      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="3">
         <v>2030</v>
       </c>
       <c r="H112">
@@ -2452,20 +2450,20 @@
       <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3"/>
+    <col min="5" max="5" width="11.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -2477,99 +2475,99 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3">
         <v>2040</v>

--- a/src_files/data_files/unitdata_chp-units.xlsx
+++ b/src_files/data_files/unitdata_chp-units.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BB\bb-master\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E56BDD1-F69F-4FA1-9AD3-0D7DB18FBB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D64391D-1F3D-4434-90D0-41989829A078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unitdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Remove_conventionalVersions" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">unitdata!$A$1:$L$112</definedName>
@@ -40,123 +39,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="34">
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Gas CCGT CHP</t>
+  </si>
+  <si>
+    <t>Oil HOB</t>
+  </si>
+  <si>
+    <t>Gas HOB</t>
+  </si>
+  <si>
+    <t>Bio HOB</t>
+  </si>
+  <si>
+    <t>Ground source heat pump</t>
+  </si>
+  <si>
+    <t>Electric boiler</t>
+  </si>
+  <si>
+    <t>Bio CHP</t>
+  </si>
+  <si>
+    <t>Coal CHP</t>
+  </si>
+  <si>
+    <t>Waste CHP</t>
+  </si>
+  <si>
+    <t>SE02</t>
+  </si>
+  <si>
+    <t>SE03</t>
+  </si>
+  <si>
+    <t>SE04</t>
+  </si>
+  <si>
+    <t>DE00</t>
+  </si>
+  <si>
+    <t>PL00</t>
+  </si>
+  <si>
+    <t>DKE1</t>
+  </si>
+  <si>
+    <t>Distributed Energy</t>
+  </si>
+  <si>
+    <t>Heat storage discharger</t>
+  </si>
+  <si>
+    <t>Heat storage charger</t>
+  </si>
+  <si>
+    <t>capacity_output1</t>
+  </si>
+  <si>
+    <t>capacity_output2</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>node_suffix_output2</t>
+  </si>
+  <si>
+    <t>node_suffix_output1</t>
+  </si>
+  <si>
+    <t>unit_name_prefix</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Gas conventional old 2 Bio</t>
+  </si>
+  <si>
+    <t>node_suffix_input1</t>
+  </si>
+  <si>
+    <t>capacity_input1</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
   <si>
     <t>Generator_ID</t>
-  </si>
-  <si>
-    <t>Scenario</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>FI00</t>
-  </si>
-  <si>
-    <t>Gas CCGT CHP</t>
-  </si>
-  <si>
-    <t>Oil HOB</t>
-  </si>
-  <si>
-    <t>Gas HOB</t>
-  </si>
-  <si>
-    <t>Bio HOB</t>
-  </si>
-  <si>
-    <t>Ground source heat pump</t>
-  </si>
-  <si>
-    <t>Electric boiler</t>
-  </si>
-  <si>
-    <t>Bio CHP</t>
-  </si>
-  <si>
-    <t>Coal CHP</t>
-  </si>
-  <si>
-    <t>Waste CHP</t>
-  </si>
-  <si>
-    <t>SE02</t>
-  </si>
-  <si>
-    <t>SE03</t>
-  </si>
-  <si>
-    <t>SE04</t>
-  </si>
-  <si>
-    <t>DE00</t>
-  </si>
-  <si>
-    <t>PL00</t>
-  </si>
-  <si>
-    <t>DKE1</t>
-  </si>
-  <si>
-    <t>Distributed Energy</t>
-  </si>
-  <si>
-    <t>Heat storage discharger</t>
-  </si>
-  <si>
-    <t>Heat storage charger</t>
-  </si>
-  <si>
-    <t>capacity_output1</t>
-  </si>
-  <si>
-    <t>capacity_output2</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>node_suffix_output2</t>
-  </si>
-  <si>
-    <t>node_suffix_output1</t>
-  </si>
-  <si>
-    <t>unit_name_prefix</t>
-  </si>
-  <si>
-    <t>Gas CCGT old 2</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>Gas CCGT present 1</t>
-  </si>
-  <si>
-    <t>Hard coal old 1</t>
-  </si>
-  <si>
-    <t>Hard coal old 1 Bio</t>
-  </si>
-  <si>
-    <t>Hard coal old 2 Bio</t>
-  </si>
-  <si>
-    <t>Gas conventional old 2 Bio</t>
-  </si>
-  <si>
-    <t>Hard coal new Bio</t>
-  </si>
-  <si>
-    <t>node_suffix_input1</t>
-  </si>
-  <si>
-    <t>capacity_input1</t>
   </si>
 </sst>
 </file>
@@ -213,11 +197,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -346,73 +330,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L112"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="3"/>
+    <col min="4" max="4" width="16.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="11" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="H2">
@@ -422,17 +409,17 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="H3">
@@ -442,17 +429,17 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="H4">
@@ -462,34 +449,34 @@
         <v>900</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="H5">
         <v>23300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
       <c r="H6">
@@ -499,17 +486,17 @@
         <v>967</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="H7">
@@ -519,17 +506,17 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="H8">
@@ -539,17 +526,17 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="H9">
@@ -559,68 +546,68 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="H10">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="H11">
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="3">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
       <c r="H12">
         <v>820</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="H13">
@@ -630,17 +617,17 @@
         <v>960</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
         <v>1</v>
       </c>
       <c r="H14">
@@ -650,34 +637,34 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="H15">
         <v>11000</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="3">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="H16">
@@ -686,15 +673,15 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="H17">
@@ -706,15 +693,15 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="3">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="H18">
@@ -726,15 +713,15 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="3">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="H19">
@@ -743,15 +730,15 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="H20">
@@ -760,15 +747,15 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="H21">
@@ -777,15 +764,15 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="3">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="H22">
@@ -797,15 +784,15 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="3">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="H23">
@@ -817,15 +804,15 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
       <c r="H24">
@@ -837,15 +824,15 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="3">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
         <v>1</v>
       </c>
       <c r="H25">
@@ -854,15 +841,15 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
         <v>1</v>
       </c>
       <c r="H26">
@@ -871,15 +858,15 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="3">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="H27">
@@ -891,15 +878,15 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="3">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
         <v>1</v>
       </c>
       <c r="H28">
@@ -911,15 +898,15 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
         <v>1</v>
       </c>
       <c r="H29">
@@ -928,15 +915,15 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
         <v>1</v>
       </c>
       <c r="H30">
@@ -945,15 +932,15 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="H31">
@@ -962,15 +949,15 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="3">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="H32">
@@ -979,15 +966,15 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="3">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="H33">
@@ -996,15 +983,15 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="3">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2">
         <v>1</v>
       </c>
       <c r="H34">
@@ -1013,15 +1000,15 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="3">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2">
         <v>1</v>
       </c>
       <c r="H35">
@@ -1030,15 +1017,15 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="3">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2">
         <v>1</v>
       </c>
       <c r="H36">
@@ -1047,15 +1034,15 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" s="3">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="H37">
@@ -1064,15 +1051,15 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="3">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="H38">
@@ -1081,15 +1068,15 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="3">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="H39">
@@ -1098,15 +1085,15 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="3">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="H40">
@@ -1115,15 +1102,15 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="3">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="2">
         <v>1</v>
       </c>
       <c r="H41">
@@ -1132,15 +1119,15 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="3">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="H42">
@@ -1149,15 +1136,15 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="3">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="2">
         <v>2040</v>
       </c>
       <c r="H43">
@@ -1166,15 +1153,15 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="3">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="2">
         <v>2040</v>
       </c>
       <c r="H44">
@@ -1186,15 +1173,15 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E45" s="3">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="2">
         <v>2040</v>
       </c>
       <c r="H45">
@@ -1206,15 +1193,15 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E46" s="3">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="2">
         <v>2040</v>
       </c>
       <c r="H46">
@@ -1226,15 +1213,15 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="3">
+        <v>5</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="2">
         <v>2040</v>
       </c>
       <c r="H47">
@@ -1243,15 +1230,15 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="3">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="2">
         <v>2030</v>
       </c>
       <c r="H48">
@@ -1260,15 +1247,15 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="3">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="2">
         <v>2030</v>
       </c>
       <c r="H49">
@@ -1280,15 +1267,15 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="3">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2">
         <v>2030</v>
       </c>
       <c r="H50">
@@ -1300,15 +1287,15 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="3">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2">
         <v>2030</v>
       </c>
       <c r="H51">
@@ -1320,15 +1307,15 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E52" s="3">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2">
         <v>2030</v>
       </c>
       <c r="H52">
@@ -1337,15 +1324,15 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="2">
         <v>2030</v>
       </c>
       <c r="H53">
@@ -1357,15 +1344,15 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E54" s="3">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="2">
         <v>2040</v>
       </c>
       <c r="H54">
@@ -1374,15 +1361,15 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E55" s="3">
+        <v>8</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="2">
         <v>2040</v>
       </c>
       <c r="H55">
@@ -1391,15 +1378,15 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E56" s="3">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="2">
         <v>2040</v>
       </c>
       <c r="H56">
@@ -1411,15 +1398,15 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E57" s="3">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="2">
         <v>2040</v>
       </c>
       <c r="H57">
@@ -1431,15 +1418,15 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="3">
+        <v>5</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="2">
         <v>2040</v>
       </c>
       <c r="H58">
@@ -1448,15 +1435,15 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="2">
         <v>2040</v>
       </c>
       <c r="H59">
@@ -1465,15 +1452,15 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E60" s="3">
+        <v>6</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="2">
         <v>2040</v>
       </c>
       <c r="H60">
@@ -1482,15 +1469,15 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E61" s="3">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="2">
         <v>2030</v>
       </c>
       <c r="H61">
@@ -1499,15 +1486,15 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E62" s="3">
+        <v>8</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="2">
         <v>2030</v>
       </c>
       <c r="H62">
@@ -1516,15 +1503,15 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="3">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="2">
         <v>2030</v>
       </c>
       <c r="H63">
@@ -1536,15 +1523,15 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="3">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="2">
         <v>2030</v>
       </c>
       <c r="H64">
@@ -1556,15 +1543,15 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E65" s="3">
+        <v>5</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="2">
         <v>2030</v>
       </c>
       <c r="H65">
@@ -1573,15 +1560,15 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E66" s="3">
+        <v>4</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="2">
         <v>2030</v>
       </c>
       <c r="H66">
@@ -1590,15 +1577,15 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="3">
+        <v>6</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="2">
         <v>2030</v>
       </c>
       <c r="H67">
@@ -1607,15 +1594,15 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="3">
+        <v>10</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="2">
         <v>2030</v>
       </c>
       <c r="H68">
@@ -1627,15 +1614,15 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="3">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="2">
         <v>2040</v>
       </c>
       <c r="H69">
@@ -1644,15 +1631,15 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E70" s="3">
+        <v>8</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="2">
         <v>2040</v>
       </c>
       <c r="H70">
@@ -1661,15 +1648,15 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="3">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="2">
         <v>2040</v>
       </c>
       <c r="H71">
@@ -1681,15 +1668,15 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E72" s="3">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="2">
         <v>2040</v>
       </c>
       <c r="H72">
@@ -1701,15 +1688,15 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="3">
+        <v>10</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="2">
         <v>2040</v>
       </c>
       <c r="H73">
@@ -1721,15 +1708,15 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="3">
+        <v>5</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="2">
         <v>2040</v>
       </c>
       <c r="H74">
@@ -1738,15 +1725,15 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="2">
         <v>2040</v>
       </c>
       <c r="H75">
@@ -1755,15 +1742,15 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E76" s="3">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="2">
         <v>2030</v>
       </c>
       <c r="H76">
@@ -1772,15 +1759,15 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="3">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2">
         <v>2030</v>
       </c>
       <c r="H77">
@@ -1789,15 +1776,15 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E78" s="3">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="2">
         <v>2030</v>
       </c>
       <c r="H78">
@@ -1809,15 +1796,15 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="3">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="2">
         <v>2030</v>
       </c>
       <c r="H79">
@@ -1829,15 +1816,15 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E80" s="3">
+        <v>10</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="2">
         <v>2030</v>
       </c>
       <c r="H80">
@@ -1849,15 +1836,15 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="3">
+        <v>5</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="2">
         <v>2030</v>
       </c>
       <c r="H81">
@@ -1866,15 +1853,15 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E82" s="3">
+        <v>4</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="2">
         <v>2030</v>
       </c>
       <c r="H82">
@@ -1883,15 +1870,15 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="3">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="2">
         <v>2040</v>
       </c>
       <c r="H83">
@@ -1900,15 +1887,15 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="3">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="2">
         <v>2040</v>
       </c>
       <c r="H84">
@@ -1920,15 +1907,15 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E85" s="3">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="2">
         <v>2040</v>
       </c>
       <c r="H85">
@@ -1940,15 +1927,15 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E86" s="3">
+        <v>6</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="2">
         <v>2040</v>
       </c>
       <c r="H86">
@@ -1957,15 +1944,15 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E87" s="3">
+        <v>4</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="2">
         <v>2040</v>
       </c>
       <c r="H87">
@@ -1974,15 +1961,15 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="3">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="2">
         <v>2030</v>
       </c>
       <c r="H88">
@@ -1991,15 +1978,15 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E89" s="3">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="2">
         <v>2030</v>
       </c>
       <c r="H89">
@@ -2011,15 +1998,15 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E90" s="3">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="2">
         <v>2030</v>
       </c>
       <c r="H90">
@@ -2031,15 +2018,15 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E91" s="3">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="2">
         <v>2030</v>
       </c>
       <c r="H91">
@@ -2048,15 +2035,15 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E92" s="3">
+        <v>4</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="2">
         <v>2030</v>
       </c>
       <c r="H92">
@@ -2065,15 +2052,15 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E93" s="3">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="2">
         <v>2040</v>
       </c>
       <c r="H93">
@@ -2082,15 +2069,15 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E94" s="3">
+        <v>11</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="2">
         <v>2040</v>
       </c>
       <c r="H94">
@@ -2102,15 +2089,15 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="3">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="2">
         <v>2040</v>
       </c>
       <c r="H95">
@@ -2122,15 +2109,15 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E96" s="3">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="2">
         <v>2040</v>
       </c>
       <c r="H96">
@@ -2139,15 +2126,15 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E97" s="3">
+        <v>4</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="2">
         <v>2040</v>
       </c>
       <c r="H97">
@@ -2156,15 +2143,15 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="3">
+        <v>7</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2">
         <v>2030</v>
       </c>
       <c r="H98">
@@ -2173,15 +2160,15 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="3">
+        <v>11</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2">
         <v>2030</v>
       </c>
       <c r="H99">
@@ -2193,15 +2180,15 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="3">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2">
         <v>2030</v>
       </c>
       <c r="H100">
@@ -2213,15 +2200,15 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="3">
+        <v>6</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="2">
         <v>2030</v>
       </c>
       <c r="H101">
@@ -2230,15 +2217,15 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E102" s="3">
+        <v>4</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="2">
         <v>2030</v>
       </c>
       <c r="H102">
@@ -2247,15 +2234,15 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="3">
+        <v>7</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="2">
         <v>2040</v>
       </c>
       <c r="H103">
@@ -2264,15 +2251,15 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="3">
+        <v>11</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="2">
         <v>2040</v>
       </c>
       <c r="H104">
@@ -2284,15 +2271,15 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="3">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="2">
         <v>2040</v>
       </c>
       <c r="H105">
@@ -2304,15 +2291,15 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="3">
+        <v>6</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="2">
         <v>2040</v>
       </c>
       <c r="H106">
@@ -2321,15 +2308,15 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E107" s="3">
+        <v>4</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="2">
         <v>2040</v>
       </c>
       <c r="H107">
@@ -2338,15 +2325,15 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E108" s="3">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="2">
         <v>2030</v>
       </c>
       <c r="H108">
@@ -2355,15 +2342,15 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="3">
+        <v>11</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="2">
         <v>2030</v>
       </c>
       <c r="H109">
@@ -2375,15 +2362,15 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E110" s="3">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="2">
         <v>2030</v>
       </c>
       <c r="H110">
@@ -2395,15 +2382,15 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E111" s="3">
+        <v>6</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="2">
         <v>2030</v>
       </c>
       <c r="H111">
@@ -2412,19 +2399,36 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E112" s="3">
+        <v>4</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="2">
         <v>2030</v>
       </c>
       <c r="H112">
         <v>2500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2440,145 +2444,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB658DA-3BCB-4C85-B5D3-975D9266730C}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2040</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>